--- a/Prgramm/OrtsKoordinaten/Orte-Liste.xlsx
+++ b/Prgramm/OrtsKoordinaten/Orte-Liste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="10545"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>KoSy-y</t>
   </si>
   <si>
-    <t>Städte, die Schüler orten können</t>
-  </si>
-  <si>
     <t>Lüneburg</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>Geesthacht</t>
+  </si>
+  <si>
+    <t>Städte, die die Schüler aud einer Deutschlandkarte orten können.</t>
   </si>
 </sst>
 </file>
@@ -347,9 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,6 +354,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,13 +675,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1852,7 +1852,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="2"/>
@@ -1863,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="2"/>
@@ -1874,7 +1874,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="2"/>
@@ -1885,7 +1885,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="2"/>
@@ -2030,52 +2030,52 @@
       <c r="A100" s="2">
         <v>96</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Prgramm/OrtsKoordinaten/Orte-Liste.xlsx
+++ b/Prgramm/OrtsKoordinaten/Orte-Liste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Berlin</t>
   </si>
@@ -259,15 +259,6 @@
   </si>
   <si>
     <t>KoSy-y</t>
-  </si>
-  <si>
-    <t>Lüneburg</t>
-  </si>
-  <si>
-    <t>Wismar</t>
-  </si>
-  <si>
-    <t>Schwerin</t>
   </si>
   <si>
     <t>Geesthacht</t>
@@ -661,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1855,16 +1846,18 @@
         <v>81</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="D81" s="2">
+        <v>950</v>
+      </c>
+      <c r="E81" s="2">
+        <v>566</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>78</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="4"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -1873,9 +1866,7 @@
       <c r="A83" s="2">
         <v>79</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="4"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -1884,12 +1875,6 @@
       <c r="A84" s="2">
         <v>80</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
